--- a/download_file/마음손거래내역_20230802110015.xlsx
+++ b/download_file/마음손거래내역_20230802110015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ysk\Python\python_auto_work\download_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF32875-C966-4DCE-B746-B2D63945FD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7F063E-7CD7-404A-9323-6220B196C29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="75" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="마음손거래내역_20230802110015" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
   <si>
     <t>구분</t>
   </si>
@@ -1181,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1281,88 +1281,6 @@
         <v>19</v>
       </c>
       <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45140</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1150000</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4">
-        <v>45140</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1027300</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>

--- a/download_file/마음손거래내역_20230802110015.xlsx
+++ b/download_file/마음손거래내역_20230802110015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ysk\Python\python_auto_work\download_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7F063E-7CD7-404A-9323-6220B196C29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4703C44-3FB5-44DA-8C31-C08556705909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="720" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="마음손거래내역_20230802110015" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="42">
   <si>
     <t>구분</t>
   </si>
@@ -1181,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1257,30 +1257,155 @@
         <v>45140</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>10070</v>
+        <v>1150000</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45140</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1027300</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45140</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1150000</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45140</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1027300</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
